--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0020-001 - Admin SLN menambahkan data hari libur.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0020-001 - Admin SLN menambahkan data hari libur.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8AD4A-81FE-4D8B-959D-66731AD02D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC765C0-E3BE-4918-B036-8C3C8039C957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0307" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0020" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +110,7 @@
     <t>UFT Testing Hari Libur</t>
   </si>
   <si>
-    <t>DGS-322</t>
+    <t>SCD0020-001</t>
   </si>
 </sst>
 </file>
@@ -524,13 +524,13 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -634,14 +634,14 @@
       </c>
       <c r="L2" s="6" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy/mm/dd")</f>
-        <v>2022/11/09</v>
+        <v>2022/11/12</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="1" t="str">
         <f ca="1">TEXT(TODAY()+2,"d mmmm yyyy")</f>
-        <v>9 November 2022</v>
+        <v>12 November 2022</v>
       </c>
       <c r="O2" s="6"/>
       <c r="Q2" s="8"/>
